--- a/Python/QA.xlsx
+++ b/Python/QA.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="QA prob" sheetId="4" r:id="rId2"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>c</t>
   </si>
@@ -26,12 +27,57 @@
   <si>
     <t>quattroc</t>
   </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>z11</t>
+  </si>
+  <si>
+    <t>z21</t>
+  </si>
+  <si>
+    <t>z31</t>
+  </si>
+  <si>
+    <t>z12</t>
+  </si>
+  <si>
+    <t>z22</t>
+  </si>
+  <si>
+    <t>z32</t>
+  </si>
+  <si>
+    <t>z13</t>
+  </si>
+  <si>
+    <t>z23</t>
+  </si>
+  <si>
+    <t>z33</t>
+  </si>
+  <si>
+    <t>z14</t>
+  </si>
+  <si>
+    <t>z24</t>
+  </si>
+  <si>
+    <t>z34</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +85,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,8 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -363,10 +443,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>PRODUCT(S2*4)</f>
+        <v>28.8</v>
+      </c>
+      <c r="S2" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>PRODUCT(S3*4)</f>
+        <v>80</v>
+      </c>
+      <c r="S3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>PRODUCT(S4*4)</f>
+        <v>32</v>
+      </c>
+      <c r="S4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>PRODUCT(S5*4)</f>
+        <v>9</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>24.8</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>PRODUCT(S6*4)</f>
+        <v>23.8</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>249.9</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>PRODUCT(S7*4)</f>
+        <v>23.6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>PRODUCT(S8*4)</f>
+        <v>13.8</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>PRODUCT(S9*4)</f>
+        <v>8.56</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" s="4">
+        <f>PRODUCT(S10*4)</f>
+        <v>15.8</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" s="4">
+        <f>PRODUCT(S11*4)</f>
+        <v>22.08</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" s="4">
+        <f>PRODUCT(S12*4)</f>
+        <v>14.56</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="4">
+        <f>PRODUCT(S13*4)</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q14" s="4">
+        <f>PRODUCT(S14*4)</f>
+        <v>20</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q15" s="4">
+        <f>PRODUCT(S15*4)</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q16" s="4">
+        <f>PRODUCT(S16*4)</f>
+        <v>16</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CZ3" sqref="CZ3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2708,6 +3373,9 @@
       <c r="N8">
         <v>1</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -4946,6 +5614,9 @@
       <c r="Z15">
         <v>1</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
       <c r="AB15">
         <v>0</v>
       </c>
@@ -7184,6 +7855,9 @@
       <c r="AL22">
         <v>1</v>
       </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
       <c r="AN22">
         <v>0</v>
       </c>
@@ -11663,6 +12337,9 @@
       <c r="BJ36">
         <v>1</v>
       </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
       <c r="BL36">
         <v>0</v>
       </c>
@@ -13901,6 +14578,9 @@
       <c r="BV43">
         <v>1</v>
       </c>
+      <c r="BW43">
+        <v>0</v>
+      </c>
       <c r="BX43">
         <v>0</v>
       </c>
@@ -16139,6 +16819,9 @@
       <c r="CH50">
         <v>1</v>
       </c>
+      <c r="CI50">
+        <v>0</v>
+      </c>
       <c r="CJ50">
         <v>0</v>
       </c>
@@ -18377,6 +19060,9 @@
       <c r="CT57">
         <v>1</v>
       </c>
+      <c r="CU57">
+        <v>0</v>
+      </c>
       <c r="CV57">
         <v>0</v>
       </c>
@@ -18866,7 +19552,7 @@
         <v>2.14</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C92" si="3">PRODUCT(B69,D69,A69)</f>
+        <f t="shared" ref="C69:C99" si="3">PRODUCT(B69,D69,A69)</f>
         <v>1.7120000000000002</v>
       </c>
       <c r="D69">
@@ -19226,7 +19912,7 @@
         <v>2.14</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C86:C99" si="4">PRODUCT(B93,D93,A93)</f>
+        <f t="shared" si="3"/>
         <v>0.51360000000000006</v>
       </c>
       <c r="D93">
@@ -19241,7 +19927,7 @@
         <v>3.95</v>
       </c>
       <c r="C94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94799999999999995</v>
       </c>
       <c r="D94">
@@ -19256,7 +19942,7 @@
         <v>5.52</v>
       </c>
       <c r="C95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.3247999999999998</v>
       </c>
       <c r="D95">
@@ -19271,7 +19957,7 @@
         <v>3.64</v>
       </c>
       <c r="C96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.87360000000000004</v>
       </c>
       <c r="D96">
@@ -19286,7 +19972,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.98399999999999987</v>
       </c>
       <c r="D97">
@@ -19301,7 +19987,7 @@
         <v>5</v>
       </c>
       <c r="C98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="D98">
@@ -19316,7 +20002,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.996</v>
       </c>
       <c r="D99">
@@ -19339,18 +20025,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19365,4 +20039,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>